--- a/code/excels/building/building_round_board_challenge.xlsx
+++ b/code/excels/building/building_round_board_challenge.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="199">
   <si>
     <t>回合编号</t>
   </si>
@@ -215,37 +215,37 @@
     <t>challenge10001</t>
   </si>
   <si>
-    <t>wave_1</t>
+    <t>building_enemy_maintask_5_2_2</t>
   </si>
   <si>
     <t>challenge10002</t>
   </si>
   <si>
-    <t>wave_2</t>
+    <t>building_enemy_maintask_5_3_1</t>
   </si>
   <si>
     <t>challenge10003</t>
   </si>
   <si>
-    <t>wave_3</t>
+    <t>building_enemy_maintask_5_3_2</t>
   </si>
   <si>
     <t>challenge10004</t>
   </si>
   <si>
-    <t>wave_4</t>
+    <t>building_enemy_maintask_5_4_1</t>
   </si>
   <si>
     <t>challenge10005</t>
   </si>
   <si>
-    <t>wave_5</t>
+    <t>building_enemy_maintask_5_4_2</t>
   </si>
   <si>
     <t>challenge10006</t>
   </si>
   <si>
-    <t>wave_gold</t>
+    <t>building_enemy_maintask_5_5_1</t>
   </si>
   <si>
     <t>宝箱</t>
@@ -257,37 +257,37 @@
     <t>challenge10007</t>
   </si>
   <si>
-    <t>wave_6</t>
+    <t>building_enemy_maintask_5_5_2</t>
   </si>
   <si>
     <t>challenge10008</t>
   </si>
   <si>
-    <t>wave_7</t>
+    <t>building_enemy_maintask_5_6_1</t>
   </si>
   <si>
     <t>challenge10009</t>
   </si>
   <si>
-    <t>wave_8</t>
+    <t>building_enemy_maintask_5_6_2</t>
   </si>
   <si>
     <t>challenge10010</t>
   </si>
   <si>
-    <t>wave_9</t>
+    <t>building_enemy_maintask_5_7_1</t>
   </si>
   <si>
     <t>challenge10011</t>
   </si>
   <si>
-    <t>wave_10</t>
+    <t>building_enemy_maintask_5_7_2</t>
   </si>
   <si>
     <t>challenge10012</t>
   </si>
   <si>
-    <t>wave_goldx3</t>
+    <t>building_enemy_maintask_5_8_1</t>
   </si>
   <si>
     <t>n1_equip</t>
@@ -296,72 +296,78 @@
     <t>challenge10013</t>
   </si>
   <si>
-    <t>wave_11</t>
+    <t>building_enemy_maintask_5_8_2</t>
   </si>
   <si>
     <t>challenge10014</t>
   </si>
   <si>
-    <t>wave_12</t>
+    <t>building_enemy_maintask_5_9_1</t>
   </si>
   <si>
     <t>challenge10015</t>
   </si>
   <si>
-    <t>wave_13</t>
+    <t>building_enemy_maintask_5_9_2</t>
   </si>
   <si>
     <t>challenge10016</t>
   </si>
   <si>
-    <t>wave_14</t>
+    <t>building_enemy_hercules_1</t>
   </si>
   <si>
     <t>challenge10017</t>
   </si>
   <si>
-    <t>wave_15</t>
+    <t>building_enemy_hercules_2</t>
   </si>
   <si>
     <t>challenge10018</t>
   </si>
   <si>
+    <t>building_enemy_hercules_3</t>
+  </si>
+  <si>
     <t>n1_artifact</t>
   </si>
   <si>
     <t>challenge10019</t>
   </si>
   <si>
-    <t>wave_16</t>
+    <t>building_enemy_hercules_4</t>
   </si>
   <si>
     <t>challenge10020</t>
   </si>
   <si>
-    <t>wave_17</t>
+    <t>building_enemy_hercules_5</t>
   </si>
   <si>
     <t>challenge10021</t>
   </si>
   <si>
-    <t>wave_18</t>
+    <t>building_enemy_hercules_6</t>
   </si>
   <si>
     <t>challenge10022</t>
   </si>
   <si>
-    <t>wave_19</t>
+    <t>building_enemy_hercules_7</t>
   </si>
   <si>
     <t>challenge10023</t>
   </si>
   <si>
-    <t>wave_20</t>
+    <t>building_enemy_hercules_8</t>
   </si>
   <si>
     <t>challenge10024</t>
   </si>
   <si>
+    <t>building_enemy_hercules_9</t>
+  </si>
+  <si>
     <t>n2_gold</t>
   </si>
   <si>
@@ -371,73 +377,76 @@
     <t>challenge10025</t>
   </si>
   <si>
-    <t>wave_21</t>
+    <t>building_enemy_hercules_10</t>
   </si>
   <si>
     <t>challenge10026</t>
   </si>
   <si>
-    <t>wave_22</t>
+    <t>building_enemy_hercules_11</t>
   </si>
   <si>
     <t>challenge10027</t>
   </si>
   <si>
-    <t>wave_23</t>
+    <t>building_enemy_hercules_12</t>
   </si>
   <si>
     <t>challenge10028</t>
   </si>
   <si>
-    <t>wave_24</t>
+    <t>building_enemy_tartarus_1</t>
   </si>
   <si>
     <t>challenge10029</t>
   </si>
   <si>
-    <t>wave_25</t>
+    <t>building_enemy_tartarus_2</t>
   </si>
   <si>
     <t>challenge10030</t>
   </si>
   <si>
+    <t>building_enemy_tartarus_3</t>
+  </si>
+  <si>
     <t>n2_wood</t>
   </si>
   <si>
     <t>challenge10031</t>
   </si>
   <si>
-    <t>wave_26</t>
+    <t>building_enemy_tartarus_4</t>
   </si>
   <si>
     <t>challenge10032</t>
   </si>
   <si>
-    <t>wave_27</t>
+    <t>building_enemy_tartarus_5</t>
   </si>
   <si>
     <t>challenge10033</t>
   </si>
   <si>
-    <t>wave_28</t>
+    <t>building_enemy_tartarus_6_1</t>
   </si>
   <si>
     <t>challenge10034</t>
   </si>
   <si>
-    <t>wave_29</t>
+    <t>building_enemy_tartarus_6_2</t>
   </si>
   <si>
     <t>challenge10035</t>
   </si>
   <si>
-    <t>wave_30</t>
+    <t>building_enemy_tartarus_6_3</t>
   </si>
   <si>
     <t>challenge10036</t>
   </si>
   <si>
-    <t>wave_phantom_roshan</t>
+    <t>building_enemy_tartarus_7_1</t>
   </si>
   <si>
     <t>小BOSS</t>
@@ -449,72 +458,78 @@
     <t>challenge10037</t>
   </si>
   <si>
-    <t>wave_31</t>
+    <t>building_enemy_tartarus_7_2</t>
   </si>
   <si>
     <t>challenge10038</t>
   </si>
   <si>
-    <t>wave_32</t>
+    <t>building_enemy_tartarus_7_3</t>
   </si>
   <si>
     <t>challenge10039</t>
   </si>
   <si>
-    <t>wave_33</t>
+    <t>building_enemy_tartarus_8_1</t>
   </si>
   <si>
     <t>challenge10040</t>
   </si>
   <si>
-    <t>wave_34</t>
+    <t>building_enemy_tartarus_8_2</t>
   </si>
   <si>
     <t>challenge10041</t>
   </si>
   <si>
-    <t>wave_35</t>
+    <t>building_enemy_tartarus_9</t>
   </si>
   <si>
     <t>challenge10042</t>
   </si>
   <si>
+    <t>building_enemy_wordless_book_1</t>
+  </si>
+  <si>
     <t>n2_artifact</t>
   </si>
   <si>
     <t>challenge10043</t>
   </si>
   <si>
-    <t>wave_36</t>
+    <t>building_enemy_wordless_book_2</t>
   </si>
   <si>
     <t>challenge10044</t>
   </si>
   <si>
-    <t>wave_37</t>
+    <t>building_enemy_wordless_book_3</t>
   </si>
   <si>
     <t>challenge10045</t>
   </si>
   <si>
-    <t>wave_38</t>
+    <t>building_enemy_wordless_book_4</t>
   </si>
   <si>
     <t>challenge10046</t>
   </si>
   <si>
-    <t>wave_43</t>
+    <t>building_enemy_wordless_book_5</t>
   </si>
   <si>
     <t>challenge10047</t>
   </si>
   <si>
-    <t>wave_44</t>
+    <t>building_enemy_wordless_book_6</t>
   </si>
   <si>
     <t>challenge10048</t>
   </si>
   <si>
+    <t>building_enemy_wordless_book_7</t>
+  </si>
+  <si>
     <t>n3_gold</t>
   </si>
   <si>
@@ -524,34 +539,37 @@
     <t>challenge10049</t>
   </si>
   <si>
-    <t>wave_41</t>
+    <t>building_enemy_wordless_book_8</t>
   </si>
   <si>
     <t>challenge10050</t>
   </si>
   <si>
-    <t>wave_42</t>
+    <t>building_enemy_wordless_book_9</t>
   </si>
   <si>
     <t>challenge10051</t>
   </si>
   <si>
-    <t>wave_39</t>
+    <t>building_enemy_wordless_book_10</t>
   </si>
   <si>
     <t>challenge10052</t>
   </si>
   <si>
-    <t>wave_40</t>
+    <t>building_enemy_wordless_scepter_1</t>
   </si>
   <si>
     <t>challenge10053</t>
   </si>
   <si>
+    <t>building_enemy_wordless_scepter_2</t>
+  </si>
+  <si>
     <t>challenge10054</t>
   </si>
   <si>
-    <t>wave_55</t>
+    <t>building_enemy_wordless_scepter_3</t>
   </si>
   <si>
     <t>BOSS</t>
@@ -560,7 +578,7 @@
     <t>challenge10055</t>
   </si>
   <si>
-    <t>candy_boss</t>
+    <t>building_enemy_wordless_scepter_4</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -601,12 +619,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,7 +648,50 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,6 +699,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -653,10 +729,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -668,37 +744,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,48 +783,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,13 +792,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,7 +812,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,7 +824,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,13 +938,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,49 +956,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,91 +980,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,48 +1003,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1056,11 +1038,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1079,16 +1083,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1097,19 +1121,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1118,116 +1142,116 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1250,6 +1274,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1573,10 +1600,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF57"/>
+  <dimension ref="A1:AF114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E57"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58:F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1586,7 +1613,7 @@
     <col min="3" max="3" width="10.8333333333333" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="14.4166666666667" customWidth="1"/>
-    <col min="6" max="6" width="20.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="35.25" customWidth="1"/>
     <col min="7" max="7" width="9.58333333333333" customWidth="1"/>
     <col min="8" max="8" width="8.75" customWidth="1"/>
     <col min="9" max="9" width="11.3333333333333" customWidth="1"/>
@@ -1817,7 +1844,7 @@
       <c r="E3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="9" t="s">
         <v>66</v>
       </c>
       <c r="G3" s="3">
@@ -1889,7 +1916,7 @@
       <c r="E4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="9" t="s">
         <v>68</v>
       </c>
       <c r="G4" s="3">
@@ -1961,7 +1988,7 @@
       <c r="E5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="9" t="s">
         <v>70</v>
       </c>
       <c r="G5" s="3">
@@ -2033,7 +2060,7 @@
       <c r="E6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="9" t="s">
         <v>72</v>
       </c>
       <c r="G6" s="3">
@@ -2105,7 +2132,7 @@
       <c r="E7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="9" t="s">
         <v>74</v>
       </c>
       <c r="G7" s="3">
@@ -2171,7 +2198,7 @@
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="3"/>
-      <c r="B8" s="9"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
@@ -2180,16 +2207,16 @@
       <c r="F8" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="9">
-        <v>10</v>
-      </c>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="10">
+        <v>10</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="10">
         <v>3</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="10">
         <v>6</v>
       </c>
       <c r="K8" s="8">
@@ -2201,55 +2228,55 @@
       <c r="M8" s="8">
         <v>0</v>
       </c>
-      <c r="N8" s="9">
-        <v>1</v>
-      </c>
-      <c r="O8" s="9">
-        <v>1</v>
-      </c>
-      <c r="P8" s="9">
+      <c r="N8" s="10">
+        <v>1</v>
+      </c>
+      <c r="O8" s="10">
+        <v>1</v>
+      </c>
+      <c r="P8" s="10">
         <v>5</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="10">
         <v>5</v>
       </c>
-      <c r="R8" s="9">
-        <v>1</v>
-      </c>
-      <c r="S8" s="9">
-        <v>1</v>
-      </c>
-      <c r="T8" s="9">
-        <v>1</v>
-      </c>
-      <c r="U8" s="9">
-        <v>10</v>
-      </c>
-      <c r="V8" s="9">
-        <v>10</v>
-      </c>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9">
+      <c r="R8" s="10">
+        <v>1</v>
+      </c>
+      <c r="S8" s="10">
+        <v>1</v>
+      </c>
+      <c r="T8" s="10">
+        <v>1</v>
+      </c>
+      <c r="U8" s="10">
+        <v>10</v>
+      </c>
+      <c r="V8" s="10">
+        <v>10</v>
+      </c>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10">
         <v>30</v>
       </c>
-      <c r="AA8" s="9">
+      <c r="AA8" s="10">
         <v>50000</v>
       </c>
-      <c r="AB8" s="9">
+      <c r="AB8" s="10">
         <v>5</v>
       </c>
-      <c r="AC8" s="9">
+      <c r="AC8" s="10">
         <v>1.2</v>
       </c>
-      <c r="AD8" s="9">
+      <c r="AD8" s="10">
         <v>100</v>
       </c>
-      <c r="AE8" s="9">
+      <c r="AE8" s="10">
         <v>1000</v>
       </c>
-      <c r="AF8" s="9"/>
+      <c r="AF8" s="10"/>
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="3" t="s">
@@ -2267,7 +2294,7 @@
       <c r="E9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="9" t="s">
         <v>80</v>
       </c>
       <c r="G9" s="3">
@@ -2339,7 +2366,7 @@
       <c r="E10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="9" t="s">
         <v>82</v>
       </c>
       <c r="G10" s="3">
@@ -2411,7 +2438,7 @@
       <c r="E11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="9" t="s">
         <v>84</v>
       </c>
       <c r="G11" s="3">
@@ -2483,7 +2510,7 @@
       <c r="E12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="9" t="s">
         <v>86</v>
       </c>
       <c r="G12" s="3">
@@ -2555,7 +2582,7 @@
       <c r="E13" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="9" t="s">
         <v>88</v>
       </c>
       <c r="G13" s="3">
@@ -2621,7 +2648,7 @@
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="3"/>
-      <c r="B14" s="9"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
@@ -2630,16 +2657,16 @@
       <c r="F14" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="9">
-        <v>10</v>
-      </c>
-      <c r="H14" s="9" t="s">
+      <c r="G14" s="10">
+        <v>10</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="10">
         <v>3</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="10">
         <v>6</v>
       </c>
       <c r="K14" s="8">
@@ -2651,55 +2678,55 @@
       <c r="M14" s="8">
         <v>0</v>
       </c>
-      <c r="N14" s="9">
-        <v>1</v>
-      </c>
-      <c r="O14" s="9">
-        <v>1</v>
-      </c>
-      <c r="P14" s="9">
+      <c r="N14" s="10">
+        <v>1</v>
+      </c>
+      <c r="O14" s="10">
+        <v>1</v>
+      </c>
+      <c r="P14" s="10">
         <v>5</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q14" s="10">
         <v>5</v>
       </c>
-      <c r="R14" s="9">
-        <v>1</v>
-      </c>
-      <c r="S14" s="9">
-        <v>1</v>
-      </c>
-      <c r="T14" s="9">
-        <v>1</v>
-      </c>
-      <c r="U14" s="9">
-        <v>10</v>
-      </c>
-      <c r="V14" s="9">
-        <v>10</v>
-      </c>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9">
+      <c r="R14" s="10">
+        <v>1</v>
+      </c>
+      <c r="S14" s="10">
+        <v>1</v>
+      </c>
+      <c r="T14" s="10">
+        <v>1</v>
+      </c>
+      <c r="U14" s="10">
+        <v>10</v>
+      </c>
+      <c r="V14" s="10">
+        <v>10</v>
+      </c>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10">
         <v>25</v>
       </c>
-      <c r="AA14" s="9">
+      <c r="AA14" s="10">
         <v>500000</v>
       </c>
-      <c r="AB14" s="9">
-        <v>10</v>
-      </c>
-      <c r="AC14" s="9">
+      <c r="AB14" s="10">
+        <v>10</v>
+      </c>
+      <c r="AC14" s="10">
         <v>1.4</v>
       </c>
-      <c r="AD14" s="9">
+      <c r="AD14" s="10">
         <v>10000</v>
       </c>
-      <c r="AE14" s="9">
+      <c r="AE14" s="10">
         <v>1000000</v>
       </c>
-      <c r="AF14" s="9"/>
+      <c r="AF14" s="10"/>
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="3" t="s">
@@ -2717,7 +2744,7 @@
       <c r="E15" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="9" t="s">
         <v>93</v>
       </c>
       <c r="G15" s="3">
@@ -2789,7 +2816,7 @@
       <c r="E16" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="9" t="s">
         <v>95</v>
       </c>
       <c r="G16" s="3">
@@ -2861,7 +2888,7 @@
       <c r="E17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="9" t="s">
         <v>97</v>
       </c>
       <c r="G17" s="3">
@@ -2933,7 +2960,7 @@
       <c r="E18" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="9" t="s">
         <v>99</v>
       </c>
       <c r="G18" s="3">
@@ -3005,7 +3032,7 @@
       <c r="E19" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="9" t="s">
         <v>101</v>
       </c>
       <c r="G19" s="3">
@@ -3071,25 +3098,25 @@
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="3"/>
-      <c r="B20" s="9"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
         <v>102</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="9">
-        <v>10</v>
-      </c>
-      <c r="H20" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="10">
+        <v>10</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="10">
         <v>3</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="10">
         <v>6</v>
       </c>
       <c r="K20" s="8">
@@ -3101,61 +3128,61 @@
       <c r="M20" s="8">
         <v>0</v>
       </c>
-      <c r="N20" s="9">
-        <v>1</v>
-      </c>
-      <c r="O20" s="9">
-        <v>1</v>
-      </c>
-      <c r="P20" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q20" s="9">
-        <v>10</v>
-      </c>
-      <c r="R20" s="9">
-        <v>1</v>
-      </c>
-      <c r="S20" s="9">
-        <v>1</v>
-      </c>
-      <c r="T20" s="9">
-        <v>1</v>
-      </c>
-      <c r="U20" s="9">
-        <v>10</v>
-      </c>
-      <c r="V20" s="9">
-        <v>10</v>
-      </c>
-      <c r="W20" s="9">
-        <v>1</v>
-      </c>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9">
+      <c r="N20" s="10">
+        <v>1</v>
+      </c>
+      <c r="O20" s="10">
+        <v>1</v>
+      </c>
+      <c r="P20" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>10</v>
+      </c>
+      <c r="R20" s="10">
+        <v>1</v>
+      </c>
+      <c r="S20" s="10">
+        <v>1</v>
+      </c>
+      <c r="T20" s="10">
+        <v>1</v>
+      </c>
+      <c r="U20" s="10">
+        <v>10</v>
+      </c>
+      <c r="V20" s="10">
+        <v>10</v>
+      </c>
+      <c r="W20" s="10">
+        <v>1</v>
+      </c>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10">
         <v>30</v>
       </c>
-      <c r="AA20" s="9">
+      <c r="AA20" s="10">
         <v>1000000</v>
       </c>
-      <c r="AB20" s="9">
+      <c r="AB20" s="10">
         <v>20</v>
       </c>
-      <c r="AC20" s="9">
+      <c r="AC20" s="10">
         <v>1.4</v>
       </c>
-      <c r="AD20" s="9">
+      <c r="AD20" s="10">
         <v>10000</v>
       </c>
-      <c r="AE20" s="9">
+      <c r="AE20" s="10">
         <v>1000000</v>
       </c>
-      <c r="AF20" s="9"/>
+      <c r="AF20" s="10"/>
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>63</v>
@@ -3167,10 +3194,10 @@
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="3" t="s">
         <v>105</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="G21" s="3">
         <v>10</v>
@@ -3239,10 +3266,10 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F22" s="3" t="s">
         <v>107</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="G22" s="3">
         <v>10</v>
@@ -3311,10 +3338,10 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" s="3" t="s">
         <v>109</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="G23" s="3">
         <v>10</v>
@@ -3383,10 +3410,10 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" s="3" t="s">
         <v>111</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="G24" s="3">
         <v>10</v>
@@ -3455,10 +3482,10 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="3" t="s">
         <v>113</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="G25" s="3">
         <v>10</v>
@@ -3523,25 +3550,25 @@
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="3"/>
-      <c r="B26" s="9"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="9">
-        <v>10</v>
-      </c>
-      <c r="H26" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="10">
+        <v>10</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="10">
         <v>3</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="10">
         <v>6</v>
       </c>
       <c r="K26" s="8">
@@ -3553,76 +3580,76 @@
       <c r="M26" s="8">
         <v>0</v>
       </c>
-      <c r="N26" s="9">
-        <v>1</v>
-      </c>
-      <c r="O26" s="9">
-        <v>1</v>
-      </c>
-      <c r="P26" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q26" s="9">
-        <v>10</v>
-      </c>
-      <c r="R26" s="9">
-        <v>1</v>
-      </c>
-      <c r="S26" s="9">
-        <v>1</v>
-      </c>
-      <c r="T26" s="9">
-        <v>1</v>
-      </c>
-      <c r="U26" s="9">
-        <v>10</v>
-      </c>
-      <c r="V26" s="9">
-        <v>10</v>
-      </c>
-      <c r="W26" s="9">
-        <v>1</v>
-      </c>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9">
+      <c r="N26" s="10">
+        <v>1</v>
+      </c>
+      <c r="O26" s="10">
+        <v>1</v>
+      </c>
+      <c r="P26" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>10</v>
+      </c>
+      <c r="R26" s="10">
+        <v>1</v>
+      </c>
+      <c r="S26" s="10">
+        <v>1</v>
+      </c>
+      <c r="T26" s="10">
+        <v>1</v>
+      </c>
+      <c r="U26" s="10">
+        <v>10</v>
+      </c>
+      <c r="V26" s="10">
+        <v>10</v>
+      </c>
+      <c r="W26" s="10">
+        <v>1</v>
+      </c>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10">
         <v>25</v>
       </c>
-      <c r="AA26" s="9">
+      <c r="AA26" s="10">
         <v>10000000</v>
       </c>
-      <c r="AB26" s="9">
+      <c r="AB26" s="10">
         <v>200</v>
       </c>
-      <c r="AC26" s="9">
+      <c r="AC26" s="10">
         <v>1.4</v>
       </c>
-      <c r="AD26" s="9">
+      <c r="AD26" s="10">
         <v>10000</v>
       </c>
-      <c r="AE26" s="9">
+      <c r="AE26" s="10">
         <v>1000000</v>
       </c>
-      <c r="AF26" s="9"/>
+      <c r="AF26" s="10"/>
     </row>
     <row r="27" spans="1:32">
       <c r="A27" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D27" s="3">
         <v>10</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="G27" s="3">
         <v>10</v>
@@ -3691,10 +3718,10 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="G28" s="3">
         <v>10</v>
@@ -3763,10 +3790,10 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="G29" s="3">
         <v>10</v>
@@ -3835,10 +3862,10 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="G30" s="3">
         <v>10</v>
@@ -3907,10 +3934,10 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="G31" s="3">
         <v>10</v>
@@ -3975,25 +4002,25 @@
     </row>
     <row r="32" spans="1:32">
       <c r="A32" s="3"/>
-      <c r="B32" s="9"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G32" s="9">
-        <v>10</v>
-      </c>
-      <c r="H32" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="10">
+        <v>10</v>
+      </c>
+      <c r="H32" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="10">
         <v>3</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="10">
         <v>6</v>
       </c>
       <c r="K32" s="8">
@@ -4005,76 +4032,76 @@
       <c r="M32" s="8">
         <v>0</v>
       </c>
-      <c r="N32" s="9">
-        <v>1</v>
-      </c>
-      <c r="O32" s="9">
-        <v>1</v>
-      </c>
-      <c r="P32" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q32" s="9">
-        <v>10</v>
-      </c>
-      <c r="R32" s="9">
-        <v>1</v>
-      </c>
-      <c r="S32" s="9">
-        <v>1</v>
-      </c>
-      <c r="T32" s="9">
-        <v>1</v>
-      </c>
-      <c r="U32" s="9">
-        <v>10</v>
-      </c>
-      <c r="V32" s="9">
-        <v>10</v>
-      </c>
-      <c r="W32" s="9">
-        <v>1</v>
-      </c>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9">
+      <c r="N32" s="10">
+        <v>1</v>
+      </c>
+      <c r="O32" s="10">
+        <v>1</v>
+      </c>
+      <c r="P32" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>10</v>
+      </c>
+      <c r="R32" s="10">
+        <v>1</v>
+      </c>
+      <c r="S32" s="10">
+        <v>1</v>
+      </c>
+      <c r="T32" s="10">
+        <v>1</v>
+      </c>
+      <c r="U32" s="10">
+        <v>10</v>
+      </c>
+      <c r="V32" s="10">
+        <v>10</v>
+      </c>
+      <c r="W32" s="10">
+        <v>1</v>
+      </c>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10">
         <v>30</v>
       </c>
-      <c r="AA32" s="9">
+      <c r="AA32" s="10">
         <v>10000000</v>
       </c>
-      <c r="AB32" s="9">
+      <c r="AB32" s="10">
         <v>200</v>
       </c>
-      <c r="AC32" s="9">
+      <c r="AC32" s="10">
         <v>1.4</v>
       </c>
-      <c r="AD32" s="9">
+      <c r="AD32" s="10">
         <v>10000</v>
       </c>
-      <c r="AE32" s="9">
+      <c r="AE32" s="10">
         <v>1000000</v>
       </c>
-      <c r="AF32" s="9"/>
+      <c r="AF32" s="10"/>
     </row>
     <row r="33" spans="1:32">
       <c r="A33" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D33" s="3">
         <v>4</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="G33" s="3">
         <v>10</v>
@@ -4143,10 +4170,10 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="G34" s="3">
         <v>10</v>
@@ -4215,10 +4242,10 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="G35" s="3">
         <v>10</v>
@@ -4287,10 +4314,10 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="G36" s="3">
         <v>10</v>
@@ -4359,10 +4386,10 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="G37" s="3">
         <v>10</v>
@@ -4427,25 +4454,25 @@
     </row>
     <row r="38" spans="1:32">
       <c r="A38" s="3"/>
-      <c r="B38" s="9"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G38" s="9">
-        <v>10</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="I38" s="9">
+        <v>143</v>
+      </c>
+      <c r="G38" s="10">
+        <v>10</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I38" s="10">
         <v>3</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J38" s="10">
         <v>6</v>
       </c>
       <c r="K38" s="8">
@@ -4457,64 +4484,64 @@
       <c r="M38" s="8">
         <v>0</v>
       </c>
-      <c r="N38" s="9">
-        <v>1</v>
-      </c>
-      <c r="O38" s="9">
-        <v>1</v>
-      </c>
-      <c r="P38" s="9">
+      <c r="N38" s="10">
+        <v>1</v>
+      </c>
+      <c r="O38" s="10">
+        <v>1</v>
+      </c>
+      <c r="P38" s="10">
         <v>2.5</v>
       </c>
-      <c r="Q38" s="9">
+      <c r="Q38" s="10">
         <v>2.5</v>
       </c>
-      <c r="R38" s="9">
-        <v>1</v>
-      </c>
-      <c r="S38" s="9">
-        <v>1</v>
-      </c>
-      <c r="T38" s="9">
-        <v>1</v>
-      </c>
-      <c r="U38" s="9">
-        <v>10</v>
-      </c>
-      <c r="V38" s="9">
-        <v>10</v>
-      </c>
-      <c r="W38" s="9">
-        <v>1</v>
-      </c>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="9"/>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="9"/>
-      <c r="AE38" s="9"/>
-      <c r="AF38" s="9"/>
+      <c r="R38" s="10">
+        <v>1</v>
+      </c>
+      <c r="S38" s="10">
+        <v>1</v>
+      </c>
+      <c r="T38" s="10">
+        <v>1</v>
+      </c>
+      <c r="U38" s="10">
+        <v>10</v>
+      </c>
+      <c r="V38" s="10">
+        <v>10</v>
+      </c>
+      <c r="W38" s="10">
+        <v>1</v>
+      </c>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
     </row>
     <row r="39" spans="1:32">
       <c r="A39" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D39" s="3">
         <v>2</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="G39" s="3">
         <v>10</v>
@@ -4583,10 +4610,10 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="G40" s="3">
         <v>10</v>
@@ -4655,10 +4682,10 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="G41" s="3">
         <v>10</v>
@@ -4727,10 +4754,10 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="G42" s="3">
         <v>10</v>
@@ -4799,10 +4826,10 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="G43" s="3">
         <v>10</v>
@@ -4867,25 +4894,25 @@
     </row>
     <row r="44" spans="1:32">
       <c r="A44" s="3"/>
-      <c r="B44" s="9"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G44" s="9">
-        <v>10</v>
-      </c>
-      <c r="H44" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G44" s="10">
+        <v>10</v>
+      </c>
+      <c r="H44" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="10">
         <v>3</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J44" s="10">
         <v>6</v>
       </c>
       <c r="K44" s="8">
@@ -4897,76 +4924,76 @@
       <c r="M44" s="8">
         <v>0</v>
       </c>
-      <c r="N44" s="9">
-        <v>1</v>
-      </c>
-      <c r="O44" s="9">
-        <v>1</v>
-      </c>
-      <c r="P44" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q44" s="9">
-        <v>10</v>
-      </c>
-      <c r="R44" s="9">
-        <v>1</v>
-      </c>
-      <c r="S44" s="9">
-        <v>1</v>
-      </c>
-      <c r="T44" s="9">
-        <v>1</v>
-      </c>
-      <c r="U44" s="9">
-        <v>10</v>
-      </c>
-      <c r="V44" s="9">
-        <v>10</v>
-      </c>
-      <c r="W44" s="9">
-        <v>1</v>
-      </c>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="9"/>
-      <c r="Z44" s="9">
+      <c r="N44" s="10">
+        <v>1</v>
+      </c>
+      <c r="O44" s="10">
+        <v>1</v>
+      </c>
+      <c r="P44" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="10">
+        <v>10</v>
+      </c>
+      <c r="R44" s="10">
+        <v>1</v>
+      </c>
+      <c r="S44" s="10">
+        <v>1</v>
+      </c>
+      <c r="T44" s="10">
+        <v>1</v>
+      </c>
+      <c r="U44" s="10">
+        <v>10</v>
+      </c>
+      <c r="V44" s="10">
+        <v>10</v>
+      </c>
+      <c r="W44" s="10">
+        <v>1</v>
+      </c>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10">
         <v>25</v>
       </c>
-      <c r="AA44" s="9">
+      <c r="AA44" s="10">
         <v>10000000</v>
       </c>
-      <c r="AB44" s="9">
+      <c r="AB44" s="10">
         <v>200</v>
       </c>
-      <c r="AC44" s="9">
+      <c r="AC44" s="10">
         <v>1.4</v>
       </c>
-      <c r="AD44" s="9">
+      <c r="AD44" s="10">
         <v>5000</v>
       </c>
-      <c r="AE44" s="9">
+      <c r="AE44" s="10">
         <v>1000000</v>
       </c>
-      <c r="AF44" s="9"/>
+      <c r="AF44" s="10"/>
     </row>
     <row r="45" spans="1:32">
       <c r="A45" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D45" s="3">
         <v>1</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="G45" s="3">
         <v>10</v>
@@ -5035,10 +5062,10 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="G46" s="3">
         <v>10</v>
@@ -5107,10 +5134,10 @@
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="G47" s="3">
         <v>10</v>
@@ -5179,10 +5206,10 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>166</v>
       </c>
       <c r="G48" s="3">
         <v>10</v>
@@ -5251,10 +5278,10 @@
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="G49" s="3">
         <v>10</v>
@@ -5319,25 +5346,25 @@
     </row>
     <row r="50" spans="1:32">
       <c r="A50" s="3"/>
-      <c r="B50" s="9"/>
+      <c r="B50" s="10"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G50" s="9">
-        <v>10</v>
-      </c>
-      <c r="H50" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G50" s="10">
+        <v>10</v>
+      </c>
+      <c r="H50" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I50" s="10">
         <v>3</v>
       </c>
-      <c r="J50" s="9">
+      <c r="J50" s="10">
         <v>6</v>
       </c>
       <c r="K50" s="8">
@@ -5349,76 +5376,76 @@
       <c r="M50" s="8">
         <v>0</v>
       </c>
-      <c r="N50" s="9">
-        <v>1</v>
-      </c>
-      <c r="O50" s="9">
-        <v>1</v>
-      </c>
-      <c r="P50" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q50" s="9">
-        <v>10</v>
-      </c>
-      <c r="R50" s="9">
-        <v>1</v>
-      </c>
-      <c r="S50" s="9">
-        <v>1</v>
-      </c>
-      <c r="T50" s="9">
-        <v>1</v>
-      </c>
-      <c r="U50" s="9">
-        <v>10</v>
-      </c>
-      <c r="V50" s="9">
-        <v>10</v>
-      </c>
-      <c r="W50" s="9">
-        <v>1</v>
-      </c>
-      <c r="X50" s="9"/>
-      <c r="Y50" s="9"/>
-      <c r="Z50" s="9">
+      <c r="N50" s="10">
+        <v>1</v>
+      </c>
+      <c r="O50" s="10">
+        <v>1</v>
+      </c>
+      <c r="P50" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q50" s="10">
+        <v>10</v>
+      </c>
+      <c r="R50" s="10">
+        <v>1</v>
+      </c>
+      <c r="S50" s="10">
+        <v>1</v>
+      </c>
+      <c r="T50" s="10">
+        <v>1</v>
+      </c>
+      <c r="U50" s="10">
+        <v>10</v>
+      </c>
+      <c r="V50" s="10">
+        <v>10</v>
+      </c>
+      <c r="W50" s="10">
+        <v>1</v>
+      </c>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10">
         <v>30</v>
       </c>
-      <c r="AA50" s="9">
+      <c r="AA50" s="10">
         <v>10000000</v>
       </c>
-      <c r="AB50" s="9">
+      <c r="AB50" s="10">
         <v>200</v>
       </c>
-      <c r="AC50" s="9">
+      <c r="AC50" s="10">
         <v>1.4</v>
       </c>
-      <c r="AD50" s="9">
+      <c r="AD50" s="10">
         <v>5000</v>
       </c>
-      <c r="AE50" s="9">
+      <c r="AE50" s="10">
         <v>1000000</v>
       </c>
-      <c r="AF50" s="9"/>
+      <c r="AF50" s="10"/>
     </row>
     <row r="51" spans="1:32">
       <c r="A51" s="3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D51" s="3">
         <v>10</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="G51" s="3">
         <v>10</v>
@@ -5487,10 +5514,10 @@
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>176</v>
       </c>
       <c r="G52" s="3">
         <v>10</v>
@@ -5559,10 +5586,10 @@
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="G53" s="3">
         <v>10</v>
@@ -5631,10 +5658,10 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="G54" s="3">
         <v>10</v>
@@ -5699,19 +5726,19 @@
     </row>
     <row r="55" spans="1:32">
       <c r="A55" s="3"/>
-      <c r="B55" s="9"/>
+      <c r="B55" s="10"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G55" s="9">
-        <v>10</v>
-      </c>
-      <c r="H55" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G55" s="10">
+        <v>10</v>
+      </c>
+      <c r="H55" s="10" t="s">
         <v>77</v>
       </c>
       <c r="I55" s="3">
@@ -5729,79 +5756,79 @@
       <c r="M55" s="8">
         <v>0</v>
       </c>
-      <c r="N55" s="9">
-        <v>1</v>
-      </c>
-      <c r="O55" s="9">
-        <v>1</v>
-      </c>
-      <c r="P55" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q55" s="9">
-        <v>10</v>
-      </c>
-      <c r="R55" s="9">
-        <v>1</v>
-      </c>
-      <c r="S55" s="9">
-        <v>1</v>
-      </c>
-      <c r="T55" s="9">
-        <v>1</v>
-      </c>
-      <c r="U55" s="9">
-        <v>10</v>
-      </c>
-      <c r="V55" s="9">
-        <v>10</v>
-      </c>
-      <c r="W55" s="9">
-        <v>1</v>
-      </c>
-      <c r="X55" s="9"/>
-      <c r="Y55" s="9"/>
-      <c r="Z55" s="9">
+      <c r="N55" s="10">
+        <v>1</v>
+      </c>
+      <c r="O55" s="10">
+        <v>1</v>
+      </c>
+      <c r="P55" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q55" s="10">
+        <v>10</v>
+      </c>
+      <c r="R55" s="10">
+        <v>1</v>
+      </c>
+      <c r="S55" s="10">
+        <v>1</v>
+      </c>
+      <c r="T55" s="10">
+        <v>1</v>
+      </c>
+      <c r="U55" s="10">
+        <v>10</v>
+      </c>
+      <c r="V55" s="10">
+        <v>10</v>
+      </c>
+      <c r="W55" s="10">
+        <v>1</v>
+      </c>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="10">
         <v>25</v>
       </c>
-      <c r="AA55" s="9">
+      <c r="AA55" s="10">
         <v>10000000</v>
       </c>
-      <c r="AB55" s="9">
+      <c r="AB55" s="10">
         <v>200</v>
       </c>
-      <c r="AC55" s="9">
+      <c r="AC55" s="10">
         <v>1.4</v>
       </c>
-      <c r="AD55" s="9">
+      <c r="AD55" s="10">
         <v>5000</v>
       </c>
-      <c r="AE55" s="9">
+      <c r="AE55" s="10">
         <v>1000000</v>
       </c>
-      <c r="AF55" s="9"/>
+      <c r="AF55" s="10"/>
     </row>
     <row r="56" spans="1:32">
       <c r="A56" s="3"/>
-      <c r="B56" s="9"/>
+      <c r="B56" s="10"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="G56" s="9">
-        <v>10</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="I56" s="9">
+        <v>184</v>
+      </c>
+      <c r="G56" s="10">
+        <v>10</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I56" s="10">
         <v>3</v>
       </c>
-      <c r="J56" s="9">
+      <c r="J56" s="10">
         <v>6</v>
       </c>
       <c r="K56" s="8">
@@ -5813,69 +5840,69 @@
       <c r="M56" s="8">
         <v>0</v>
       </c>
-      <c r="N56" s="9">
-        <v>1</v>
-      </c>
-      <c r="O56" s="9">
-        <v>1</v>
-      </c>
-      <c r="P56" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="9">
-        <v>1</v>
-      </c>
-      <c r="R56" s="9">
-        <v>1</v>
-      </c>
-      <c r="S56" s="9">
-        <v>1</v>
-      </c>
-      <c r="T56" s="9">
-        <v>1</v>
-      </c>
-      <c r="U56" s="9">
+      <c r="N56" s="10">
+        <v>1</v>
+      </c>
+      <c r="O56" s="10">
+        <v>1</v>
+      </c>
+      <c r="P56" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="10">
+        <v>1</v>
+      </c>
+      <c r="R56" s="10">
+        <v>1</v>
+      </c>
+      <c r="S56" s="10">
+        <v>1</v>
+      </c>
+      <c r="T56" s="10">
+        <v>1</v>
+      </c>
+      <c r="U56" s="10">
         <v>100</v>
       </c>
-      <c r="V56" s="9">
+      <c r="V56" s="10">
         <v>500</v>
       </c>
-      <c r="W56" s="9">
-        <v>1</v>
-      </c>
-      <c r="X56" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y56" s="9"/>
-      <c r="Z56" s="9"/>
-      <c r="AA56" s="9"/>
-      <c r="AB56" s="9"/>
-      <c r="AC56" s="9"/>
-      <c r="AD56" s="9"/>
-      <c r="AE56" s="9"/>
-      <c r="AF56" s="9"/>
+      <c r="W56" s="10">
+        <v>1</v>
+      </c>
+      <c r="X56" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="10"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="10"/>
+      <c r="AB56" s="10"/>
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="10"/>
+      <c r="AE56" s="10"/>
+      <c r="AF56" s="10"/>
     </row>
     <row r="57" spans="1:32">
       <c r="A57" s="3"/>
-      <c r="B57" s="9"/>
+      <c r="B57" s="10"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G57" s="9">
-        <v>10</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="I57" s="9">
+        <v>187</v>
+      </c>
+      <c r="G57" s="10">
+        <v>10</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I57" s="10">
         <v>4</v>
       </c>
-      <c r="J57" s="9">
+      <c r="J57" s="10">
         <v>6</v>
       </c>
       <c r="K57" s="8">
@@ -5887,47 +5914,218 @@
       <c r="M57" s="8">
         <v>0</v>
       </c>
-      <c r="N57" s="9">
-        <v>1</v>
-      </c>
-      <c r="O57" s="9">
-        <v>1</v>
-      </c>
-      <c r="P57" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="9">
-        <v>1</v>
-      </c>
-      <c r="R57" s="9">
-        <v>1</v>
-      </c>
-      <c r="S57" s="9">
-        <v>1</v>
-      </c>
-      <c r="T57" s="9">
-        <v>1</v>
-      </c>
-      <c r="U57" s="9">
+      <c r="N57" s="10">
+        <v>1</v>
+      </c>
+      <c r="O57" s="10">
+        <v>1</v>
+      </c>
+      <c r="P57" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="10">
+        <v>1</v>
+      </c>
+      <c r="R57" s="10">
+        <v>1</v>
+      </c>
+      <c r="S57" s="10">
+        <v>1</v>
+      </c>
+      <c r="T57" s="10">
+        <v>1</v>
+      </c>
+      <c r="U57" s="10">
         <v>100</v>
       </c>
-      <c r="V57" s="9">
+      <c r="V57" s="10">
         <v>500</v>
       </c>
-      <c r="W57" s="9">
-        <v>1</v>
-      </c>
-      <c r="X57" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y57" s="9"/>
-      <c r="Z57" s="9"/>
-      <c r="AA57" s="9"/>
-      <c r="AB57" s="9"/>
-      <c r="AC57" s="9"/>
-      <c r="AD57" s="9"/>
-      <c r="AE57" s="9"/>
-      <c r="AF57" s="9"/>
+      <c r="W57" s="10">
+        <v>1</v>
+      </c>
+      <c r="X57" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="10"/>
+      <c r="AA57" s="10"/>
+      <c r="AB57" s="10"/>
+      <c r="AC57" s="10"/>
+      <c r="AD57" s="10"/>
+      <c r="AE57" s="10"/>
+      <c r="AF57" s="10"/>
+    </row>
+    <row r="58" spans="6:6">
+      <c r="F58" s="9"/>
+    </row>
+    <row r="59" spans="6:6">
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" spans="6:6">
+      <c r="F60" s="9"/>
+    </row>
+    <row r="61" spans="6:6">
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="6:6">
+      <c r="F62" s="9"/>
+    </row>
+    <row r="63" spans="6:6">
+      <c r="F63" s="9"/>
+    </row>
+    <row r="64" spans="6:6">
+      <c r="F64" s="9"/>
+    </row>
+    <row r="65" spans="6:6">
+      <c r="F65" s="9"/>
+    </row>
+    <row r="66" spans="6:6">
+      <c r="F66" s="9"/>
+    </row>
+    <row r="67" spans="6:6">
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" spans="6:6">
+      <c r="F68" s="9"/>
+    </row>
+    <row r="69" spans="6:6">
+      <c r="F69" s="9"/>
+    </row>
+    <row r="70" spans="6:6">
+      <c r="F70" s="9"/>
+    </row>
+    <row r="71" spans="6:6">
+      <c r="F71" s="9"/>
+    </row>
+    <row r="72" spans="6:6">
+      <c r="F72" s="9"/>
+    </row>
+    <row r="73" spans="6:6">
+      <c r="F73" s="9"/>
+    </row>
+    <row r="74" spans="6:6">
+      <c r="F74" s="9"/>
+    </row>
+    <row r="75" spans="6:6">
+      <c r="F75" s="9"/>
+    </row>
+    <row r="76" spans="6:6">
+      <c r="F76" s="9"/>
+    </row>
+    <row r="77" spans="6:6">
+      <c r="F77" s="9"/>
+    </row>
+    <row r="78" spans="6:6">
+      <c r="F78" s="9"/>
+    </row>
+    <row r="79" spans="6:6">
+      <c r="F79" s="9"/>
+    </row>
+    <row r="80" spans="6:6">
+      <c r="F80" s="9"/>
+    </row>
+    <row r="81" spans="6:6">
+      <c r="F81" s="9"/>
+    </row>
+    <row r="82" spans="6:6">
+      <c r="F82" s="9"/>
+    </row>
+    <row r="83" spans="6:6">
+      <c r="F83" s="9"/>
+    </row>
+    <row r="84" spans="6:6">
+      <c r="F84" s="9"/>
+    </row>
+    <row r="85" spans="6:6">
+      <c r="F85" s="9"/>
+    </row>
+    <row r="86" spans="6:6">
+      <c r="F86" s="9"/>
+    </row>
+    <row r="87" spans="6:6">
+      <c r="F87" s="9"/>
+    </row>
+    <row r="88" spans="6:6">
+      <c r="F88" s="9"/>
+    </row>
+    <row r="89" spans="6:6">
+      <c r="F89" s="9"/>
+    </row>
+    <row r="90" spans="6:6">
+      <c r="F90" s="9"/>
+    </row>
+    <row r="91" spans="6:6">
+      <c r="F91" s="9"/>
+    </row>
+    <row r="92" spans="6:6">
+      <c r="F92" s="9"/>
+    </row>
+    <row r="93" spans="6:6">
+      <c r="F93" s="9"/>
+    </row>
+    <row r="94" spans="6:6">
+      <c r="F94" s="9"/>
+    </row>
+    <row r="95" spans="6:6">
+      <c r="F95" s="9"/>
+    </row>
+    <row r="96" spans="6:6">
+      <c r="F96" s="9"/>
+    </row>
+    <row r="97" spans="6:6">
+      <c r="F97" s="9"/>
+    </row>
+    <row r="98" spans="6:6">
+      <c r="F98" s="9"/>
+    </row>
+    <row r="99" spans="6:6">
+      <c r="F99" s="9"/>
+    </row>
+    <row r="100" spans="6:6">
+      <c r="F100" s="9"/>
+    </row>
+    <row r="101" spans="6:6">
+      <c r="F101" s="9"/>
+    </row>
+    <row r="102" spans="6:6">
+      <c r="F102" s="9"/>
+    </row>
+    <row r="103" spans="6:6">
+      <c r="F103" s="9"/>
+    </row>
+    <row r="104" spans="6:6">
+      <c r="F104" s="9"/>
+    </row>
+    <row r="105" spans="6:6">
+      <c r="F105" s="9"/>
+    </row>
+    <row r="106" spans="6:6">
+      <c r="F106" s="9"/>
+    </row>
+    <row r="107" spans="6:6">
+      <c r="F107" s="9"/>
+    </row>
+    <row r="108" spans="6:6">
+      <c r="F108" s="9"/>
+    </row>
+    <row r="109" spans="6:6">
+      <c r="F109" s="9"/>
+    </row>
+    <row r="110" spans="6:6">
+      <c r="F110" s="9"/>
+    </row>
+    <row r="111" spans="6:6">
+      <c r="F111" s="9"/>
+    </row>
+    <row r="112" spans="6:6">
+      <c r="F112" s="9"/>
+    </row>
+    <row r="113" spans="6:6">
+      <c r="F113" s="9"/>
+    </row>
+    <row r="114" spans="6:6">
+      <c r="F114" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5960,10 +6158,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="28" spans="1:33">
       <c r="A1" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -6059,10 +6257,10 @@
     </row>
     <row r="2" ht="28" spans="1:33">
       <c r="A2" s="5" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>32</v>
@@ -6077,7 +6275,7 @@
         <v>35</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>36</v>
@@ -6160,114 +6358,114 @@
     </row>
     <row r="3" ht="15.5" spans="1:33">
       <c r="A3" s="5" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H3" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:33">
       <c r="A4" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>32</v>
@@ -6282,7 +6480,7 @@
         <v>32</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>36</v>
